--- a/graph_generation/results/hermes_llama2/level_4/k_3.xlsx
+++ b/graph_generation/results/hermes_llama2/level_4/k_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>prompt</t>
   </si>
@@ -30,7 +30,7 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 17 nodes labelled A to Q. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -78,30 +78,158 @@
 Solution: A -&gt; D -&gt; E -&gt; F
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 2 0 0 0 0 0 0 0 3 0 0 0 4 3 0 0 0 0 0 0 0
- C 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- F 0 0 0 0 5 0 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 3 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0
- O 0 4 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- P 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4
- W 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+   A B C D E F G H I J K L M N O P Q
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ C 0 1 0 1 5 0 0 0 0 0 0 0 0 0 0 3 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 5 0 0 4 0 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 3 3 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 1 0 0 0 3 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0
+ O 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0 0 0
+ P 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ Q 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
+   A B C D E F G H I J K L
+ A 0 3 0 0 0 0 0 0 0 0 0 0
+ B 3 0 4 0 0 0 0 0 3 2 3 3
+ C 0 4 0 2 0 0 0 2 0 0 0 0
+ D 0 0 2 0 1 1 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 3 0 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 0 0
+ H 0 0 2 0 0 0 0 0 0 0 0 0
+ I 0 3 0 0 0 0 0 0 0 3 0 0
+ J 0 2 0 0 0 0 0 0 3 0 0 0
+ K 0 3 0 0 0 0 0 0 0 0 0 3
+ L 0 3 0 0 0 0 0 0 0 0 3 0
+Solution: A -&gt; B -&gt; C -&gt; H
+Example 2: What is the least cost path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L
+ A 0 3 4 0 0 2 0 0 0 0 0 0
+ B 3 0 0 0 0 0 0 0 0 0 0 0
+ C 4 0 0 2 0 0 0 0 0 0 0 0
+ D 0 0 2 0 5 0 0 0 0 0 0 0
+ E 0 0 0 5 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 4 0 0 0 0 1
+ G 0 0 0 0 0 4 0 5 0 2 3 0
+ H 0 0 0 0 0 0 5 0 2 0 0 0
+ I 0 0 0 0 0 0 0 2 0 0 0 0
+ J 0 0 0 0 0 0 2 0 0 0 0 0
+ K 0 0 0 0 0 0 3 0 0 0 0 3
+ L 0 0 0 0 0 1 0 0 0 0 3 0
+Solution: A -&gt; F -&gt; G -&gt; J
+Example 3: What is the least cost path from node A to node F? Return the sequence of nodes in response.
+   A B C D E F G H I J K
+ A 0 4 0 5 0 0 3 0 0 0 0
+ B 4 0 5 0 0 0 0 0 0 0 0
+ C 0 5 0 0 0 0 0 0 0 0 0
+ D 5 0 0 0 2 0 0 0 0 0 0
+ E 0 0 0 2 0 5 0 4 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 5
+ G 3 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 4 0 0 0 3 0 0
+ I 0 0 0 0 0 0 0 3 0 3 0
+ J 0 0 0 0 0 0 0 0 3 0 1
+ K 0 0 0 0 0 5 0 0 0 1 0
+Solution: A -&gt; D -&gt; E -&gt; F
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L
+ A 0 1 0 0 0 0 0 0 0 1 0 4
+ B 1 0 2 0 0 5 0 0 0 0 0 0
+ C 0 2 0 1 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0
+ F 0 5 0 0 0 0 3 5 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 0 0
+ H 0 0 0 0 0 5 0 0 5 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0
+ J 1 0 0 0 0 0 0 0 0 0 4 0
+ K 0 0 0 0 0 0 0 0 0 4 0 0
+ L 4 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 18 nodes labelled A to R. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
+   A B C D E F G H I J K L
+ A 0 3 0 0 0 0 0 0 0 0 0 0
+ B 3 0 4 0 0 0 0 0 3 2 3 3
+ C 0 4 0 2 0 0 0 2 0 0 0 0
+ D 0 0 2 0 1 1 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 3 0 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 0 0
+ H 0 0 2 0 0 0 0 0 0 0 0 0
+ I 0 3 0 0 0 0 0 0 0 3 0 0
+ J 0 2 0 0 0 0 0 0 3 0 0 0
+ K 0 3 0 0 0 0 0 0 0 0 0 3
+ L 0 3 0 0 0 0 0 0 0 0 3 0
+Solution: A -&gt; B -&gt; C -&gt; H
+Example 2: What is the least cost path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L
+ A 0 3 4 0 0 2 0 0 0 0 0 0
+ B 3 0 0 0 0 0 0 0 0 0 0 0
+ C 4 0 0 2 0 0 0 0 0 0 0 0
+ D 0 0 2 0 5 0 0 0 0 0 0 0
+ E 0 0 0 5 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 4 0 0 0 0 1
+ G 0 0 0 0 0 4 0 5 0 2 3 0
+ H 0 0 0 0 0 0 5 0 2 0 0 0
+ I 0 0 0 0 0 0 0 2 0 0 0 0
+ J 0 0 0 0 0 0 2 0 0 0 0 0
+ K 0 0 0 0 0 0 3 0 0 0 0 3
+ L 0 0 0 0 0 1 0 0 0 0 3 0
+Solution: A -&gt; F -&gt; G -&gt; J
+Example 3: What is the least cost path from node A to node F? Return the sequence of nodes in response.
+   A B C D E F G H I J K
+ A 0 4 0 5 0 0 3 0 0 0 0
+ B 4 0 5 0 0 0 0 0 0 0 0
+ C 0 5 0 0 0 0 0 0 0 0 0
+ D 5 0 0 0 2 0 0 0 0 0 0
+ E 0 0 0 2 0 5 0 4 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 5
+ G 3 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 4 0 0 0 3 0 0
+ I 0 0 0 0 0 0 0 3 0 3 0
+ J 0 0 0 0 0 0 0 0 3 0 1
+ K 0 0 0 0 0 5 0 0 0 1 0
+Solution: A -&gt; D -&gt; E -&gt; F
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R
+ A 0 4 3 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 3 0 0 3 0 1 4 0 0 0 0 0 0 0 0 0 0 3
+ D 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 4 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 2 1 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 3 0 0
+ K 0 0 0 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0
+ O 2 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 2 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3
+ R 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
     </t>
   </si>
   <si>
@@ -154,23 +282,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J K L M
- A 0 3 0 0 3 0 0 0 0 0 5 3 3
- B 3 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 5 0 0 0 3 0 0 2
- F 0 0 0 0 5 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 3 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 5 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 0 0 0 0
- J 0 0 0 0 3 0 0 0 0 0 0 0 0
- K 5 0 0 0 0 0 0 0 0 0 0 2 0
- L 3 0 0 0 0 0 0 0 0 0 2 0 0
- M 3 0 0 0 2 0 0 0 0 0 0 0 0
+ A 0 3 1 0 0 0 0 0 0 0 0 0 1
+ B 3 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 5 5 0 0 0 1 0 5 4 0
+ D 0 0 5 0 0 0 0 0 0 0 0 0 0
+ E 0 0 5 0 0 5 5 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0
+ G 0 0 0 0 5 0 0 4 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 0 0
+ I 0 0 1 0 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 0 0 3
+ K 0 0 5 0 0 0 0 0 0 0 0 2 0
+ L 0 0 4 0 0 0 0 0 0 0 2 0 0
+ M 1 0 0 0 0 0 0 0 0 3 0 0 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 17 nodes labelled A to Q. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -218,28 +346,26 @@
 Solution: A -&gt; D -&gt; E -&gt; F
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q
- A 0 2 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 5 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 5
- D 0 0 4 0 4 0 0 5 0 0 0 0 0 1 3 0 0
- E 0 0 0 4 0 1 4 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 5 0 0 0 0 4 4 1 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0
- N 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0
- O 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 3 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5
- Q 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+   A B C D E F G H I J K L M N O
+ A 0 4 0 0 0 0 0 0 0 0 4 0 0 0 0
+ B 4 0 5 0 1 3 0 0 0 0 0 0 0 0 0
+ C 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 3 0 0 0 0 5 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 1 0 0 0 0 0 0 3
+ H 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ K 4 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1
+ O 0 0 0 0 0 0 3 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 17 nodes labelled A to Q. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -287,28 +413,22 @@
 Solution: A -&gt; D -&gt; E -&gt; F
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q
- A 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 5 0 0 0 0 0 5 0 0 0 0 0 3
- E 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 5 0
- F 0 0 0 0 1 0 2 3 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 3 0 0 2 1 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- K 0 0 0 5 0 0 0 0 0 0 0 5 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0
- P 0 0 0 0 5 0 0 0 0 0 0 0 0 0 2 0 0
- Q 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+   A B C D E F G H I J K
+ A 0 3 0 0 0 0 0 0 0 0 0
+ B 3 0 2 0 3 0 0 0 0 0 0
+ C 0 2 0 1 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0
+ E 0 3 0 0 0 2 0 0 0 2 4
+ F 0 0 0 0 2 0 5 0 0 0 0
+ G 0 0 0 0 0 5 0 3 0 0 0
+ H 0 0 0 0 0 0 3 0 4 0 0
+ I 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 2 0 0 0 0 0 1
+ K 0 0 0 0 4 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 19 nodes labelled A to S. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -356,23 +476,30 @@
 Solution: A -&gt; D -&gt; E -&gt; F
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L
- A 0 1 0 0 0 0 0 0 0 0 3 1
- B 1 0 4 0 0 0 0 0 3 0 0 0
- C 0 4 0 4 1 0 4 3 0 0 0 0
- D 0 0 4 0 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 4 0 0 0 0 0 0
- F 0 0 0 0 4 0 0 0 0 0 0 0
- G 0 0 4 0 0 0 0 0 0 0 0 0
- H 0 0 3 0 0 0 0 0 0 0 0 0
- I 0 3 0 0 0 0 0 0 0 3 0 0
- J 0 0 0 0 0 0 0 0 3 0 0 0
- K 3 0 0 0 0 0 0 0 0 0 0 4
- L 1 0 0 0 0 0 0 0 0 0 4 0
+   A B C D E F G H I J K L M N O P Q R S
+ A 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 2 0 0 5 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0
+ F 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 1
+ G 0 0 0 0 0 3 0 5 3 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 3 0 0 4 2 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ O 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ S 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -420,23 +547,26 @@
 Solution: A -&gt; D -&gt; E -&gt; F
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L
- A 0 3 0 0 0 4 0 0 0 0 0 0
- B 3 0 1 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 2 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0
- E 0 0 2 0 0 0 0 0 0 0 0 0
- F 4 0 0 0 0 0 5 0 0 0 2 0
- G 0 0 0 0 0 5 0 1 0 0 0 0
- H 0 0 0 0 0 0 1 0 3 1 0 0
- I 0 0 0 0 0 0 0 3 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0 0 3
- K 0 0 0 0 0 2 0 0 0 0 0 4
- L 0 0 0 0 0 0 0 0 0 3 4 0
+   A B C D E F G H I J K L M N O
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 2 4 0 0 0 0 1 0 0 0 0 0 0
+ C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 5 1 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ I 0 1 0 0 0 0 0 0 0 2 2 0 5 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 3 3
+ K 0 0 0 0 0 0 0 0 2 0 0 5 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0
+ M 0 0 0 0 0 0 0 0 5 0 0 3 0 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1
+ O 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -484,24 +614,23 @@
 Solution: A -&gt; D -&gt; E -&gt; F
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 1 0 0 0 0 0 0 0 0 0 4 0
- B 1 0 3 0 0 0 0 2 0 5 0 0 2
- C 0 3 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 1 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0
- H 0 2 0 0 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 0 0 0 0
- J 0 5 0 0 0 0 0 0 0 0 5 0 1
- K 0 0 0 0 0 0 0 0 0 5 0 5 0
- L 4 0 0 0 0 0 0 0 0 0 5 0 0
- M 0 2 0 0 0 0 0 0 0 1 0 0 0
+   A B C D E F G H I J K L
+ A 0 4 0 0 0 4 0 0 0 1 1 0
+ B 4 0 2 0 1 0 0 0 0 0 0 0
+ C 0 2 0 3 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 0 0 0 0 0 0 0
+ F 4 0 0 0 0 0 1 0 0 0 0 0
+ G 0 0 0 0 0 1 0 4 0 0 0 0
+ H 0 0 0 0 0 0 4 0 1 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0
+ J 1 0 0 0 0 0 0 0 0 0 0 3
+ K 1 0 0 0 0 0 0 0 0 0 0 2
+ L 0 0 0 0 0 0 0 0 0 3 2 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -549,238 +678,88 @@
 Solution: A -&gt; D -&gt; E -&gt; F
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L
- A 0 1 0 0 0 0 0 0 0 0 0 0
- B 1 0 3 0 0 0 1 0 0 0 3 0
- C 0 3 0 2 0 0 0 0 0 0 0 0
- D 0 0 2 0 3 0 0 0 0 0 0 0
- E 0 0 0 3 0 3 0 0 0 0 0 0
- F 0 0 0 0 3 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 1 2 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0
- I 0 0 0 0 0 0 2 0 0 4 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 3
- K 0 3 0 0 0 0 0 0 0 0 0 5
- L 0 0 0 0 0 0 0 0 0 3 5 0
+   A B C D E F G H I J K L M N
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 1 0 0 0 0 2 0 0 0 0 0 3
+ C 0 1 0 5 3 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 3 0 0 4 2 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ H 0 2 0 0 0 0 0 0 2 1 1 5 0 0
+ I 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 0 0 5 0
+ K 0 0 0 0 0 0 0 1 0 0 0 3 0 0
+ L 0 0 0 0 0 0 0 5 0 0 3 0 0 0
+ M 0 0 0 0 0 0 0 0 0 5 0 0 0 1
+ N 0 3 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
-   A B C D E F G H I J K L
- A 0 3 0 0 0 0 0 0 0 0 0 0
- B 3 0 4 0 0 0 0 0 3 2 3 3
- C 0 4 0 2 0 0 0 2 0 0 0 0
- D 0 0 2 0 1 1 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 3 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0
- H 0 0 2 0 0 0 0 0 0 0 0 0
- I 0 3 0 0 0 0 0 0 0 3 0 0
- J 0 2 0 0 0 0 0 0 3 0 0 0
- K 0 3 0 0 0 0 0 0 0 0 0 3
- L 0 3 0 0 0 0 0 0 0 0 3 0
-Solution: A -&gt; B -&gt; C -&gt; H
-Example 2: What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L
- A 0 3 4 0 0 2 0 0 0 0 0 0
- B 3 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 2 0 0 0 0 0 0 0 0
- D 0 0 2 0 5 0 0 0 0 0 0 0
- E 0 0 0 5 0 0 0 0 0 0 0 0
- F 2 0 0 0 0 0 4 0 0 0 0 1
- G 0 0 0 0 0 4 0 5 0 2 3 0
- H 0 0 0 0 0 0 5 0 2 0 0 0
- I 0 0 0 0 0 0 0 2 0 0 0 0
- J 0 0 0 0 0 0 2 0 0 0 0 0
- K 0 0 0 0 0 0 3 0 0 0 0 3
- L 0 0 0 0 0 1 0 0 0 0 3 0
-Solution: A -&gt; F -&gt; G -&gt; J
-Example 3: What is the least cost path from node A to node F? Return the sequence of nodes in response.
-   A B C D E F G H I J K
- A 0 4 0 5 0 0 3 0 0 0 0
- B 4 0 5 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 0 0 0 0 0 0
- D 5 0 0 0 2 0 0 0 0 0 0
- E 0 0 0 2 0 5 0 4 0 0 0
- F 0 0 0 0 5 0 0 0 0 0 5
- G 3 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 4 0 0 0 3 0 0
- I 0 0 0 0 0 0 0 3 0 3 0
- J 0 0 0 0 0 0 0 0 3 0 1
- K 0 0 0 0 0 5 0 0 0 1 0
-Solution: A -&gt; D -&gt; E -&gt; F
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 4 4 0 0 0 0 4 0 0 0 0 4
- B 4 0 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 3 3 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 0 0 0 0 0 0
- E 0 0 3 0 0 1 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 2 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 0 0 0 0 0 0
- H 4 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 2 1 1 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 3
- K 0 0 0 0 0 0 0 0 1 0 0 3 0
- L 0 0 0 0 0 0 0 0 1 0 3 0 0
- M 4 0 0 0 0 0 0 0 0 3 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
-   A B C D E F G H I J K L
- A 0 3 0 0 0 0 0 0 0 0 0 0
- B 3 0 4 0 0 0 0 0 3 2 3 3
- C 0 4 0 2 0 0 0 2 0 0 0 0
- D 0 0 2 0 1 1 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 3 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0
- H 0 0 2 0 0 0 0 0 0 0 0 0
- I 0 3 0 0 0 0 0 0 0 3 0 0
- J 0 2 0 0 0 0 0 0 3 0 0 0
- K 0 3 0 0 0 0 0 0 0 0 0 3
- L 0 3 0 0 0 0 0 0 0 0 3 0
-Solution: A -&gt; B -&gt; C -&gt; H
-Example 2: What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L
- A 0 3 4 0 0 2 0 0 0 0 0 0
- B 3 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 2 0 0 0 0 0 0 0 0
- D 0 0 2 0 5 0 0 0 0 0 0 0
- E 0 0 0 5 0 0 0 0 0 0 0 0
- F 2 0 0 0 0 0 4 0 0 0 0 1
- G 0 0 0 0 0 4 0 5 0 2 3 0
- H 0 0 0 0 0 0 5 0 2 0 0 0
- I 0 0 0 0 0 0 0 2 0 0 0 0
- J 0 0 0 0 0 0 2 0 0 0 0 0
- K 0 0 0 0 0 0 3 0 0 0 0 3
- L 0 0 0 0 0 1 0 0 0 0 3 0
-Solution: A -&gt; F -&gt; G -&gt; J
-Example 3: What is the least cost path from node A to node F? Return the sequence of nodes in response.
-   A B C D E F G H I J K
- A 0 4 0 5 0 0 3 0 0 0 0
- B 4 0 5 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 0 0 0 0 0 0
- D 5 0 0 0 2 0 0 0 0 0 0
- E 0 0 0 2 0 5 0 4 0 0 0
- F 0 0 0 0 5 0 0 0 0 0 5
- G 3 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 4 0 0 0 3 0 0
- I 0 0 0 0 0 0 0 3 0 3 0
- J 0 0 0 0 0 0 0 0 3 0 1
- K 0 0 0 0 0 5 0 0 0 1 0
-Solution: A -&gt; D -&gt; E -&gt; F
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 5 3 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 3 0 0 1 1 2 0 0 0 0 1
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 2 0 0 0 5 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5
- P 0 0 0 0 0 0 0 1 0 0 0 0 0 0 5 0
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; D -&gt; H -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; Q -&gt; D -&gt; E -&gt; F -&gt; H -&gt; J</t>
+    <t>A -&gt; B -&gt; C -&gt; E -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; C -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; M -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; E -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; C -&gt; E -&gt; F -&gt; G -&gt; I -&gt; J</t>
   </si>
   <si>
     <t>A -&gt; B -&gt; I -&gt; J</t>
   </si>
   <si>
-    <t>A -&gt; F -&gt; G -&gt; H -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; M -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; G -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; M -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; D -&gt; E -&gt; F -&gt; H -&gt; J</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node J, we can use Dijkstra's algorithm. Here's the solution:
-1. Initialize the distance of all nodes to infinity, except for the starting node A, which has a distance of 0.
-2. Set the current node as A.
-3. For each neighbor of the current node, calculate the tentative distance through the current node. If this distance is less than the current distance, update the distance.
-4. Mark the current node as visited.
-5. Select the unvisited node with the smallest distance as the new current node and repeat steps 3-5 until all nodes have been visited or the target node J has been visited.
-Following these steps, we get the following sequence of nodes:
-A -&gt; B -&gt; C -&gt; H -&gt; F -&gt; G -&gt; J
-The least cost path from node A to node J is A -&gt; B -&gt; C -&gt; H -&gt; F -&gt; G -&gt; J, with a total cost of 10.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node J is A -&gt; F -&gt; G -&gt; J.</t>
+    <t>A -&gt; B -&gt; H -&gt; J</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node J, we can use Dijkstra's algorithm. Here's the step-by-step process:
 1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
 2. Select the node with the smallest distance (A) and mark it as visited.
-3. Update the distances to its neighbors (B, C, D, E, F, G, H, I, J).
+3. Update the distances to its neighbors (B and C) by adding the edge weight to the current distance. If the new distance is smaller than the previous distance, update the distance.
 4. Repeat steps 2 and 3 until all nodes are visited or the target node (J) is visited.
-Here's the result of applying Dijkstra's algorithm:
-1. Unvisited nodes: {A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q}
-   Distances: {A: 0, B: ∞, C: ∞, D: ∞, E: ∞, F: ∞, G: ∞, H: ∞, I: ∞, J: ∞, K: ∞, L: ∞, M: ∞, N: ∞, O: ∞, P: ∞, Q: ∞}
-2. Visit node A (smallest distance):
-   Unvisited nodes: {B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q}
-   Distances: {A: 0, B: 4, C: 5, D: 5, E: 7, F: 7, G: 8, H: 9, I: 9, J: 9, K: 10, L: 10, M: 10, N: 10, O: 10, P: 10, Q: 10}
-3. Visit node C (smallest distance):
-   Unvisited nodes: {B, D, E, F, G, H, I, J, K, L, M, N, O, P, Q}
-   Distances: {A: 0, B</t>
+Following this process, we get the following sequence of nodes:
+A -&gt; B -&gt; C -&gt; H -&gt; F -&gt; G -&gt; J
+The least cost path from node A to node J is A -&gt; B -&gt; C -&gt; H -&gt; F -&gt; G -&gt; J with a total cost of 10.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node J is A -&gt; F -&gt; G -&gt; J.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node J is A -&gt; F -&gt; G -&gt; J. The sequence of nodes is A, F, G, and J.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node J is A -&gt; I -&gt; J.</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node J, we can use Dijkstra's algorithm. Here's the step-by-step process:
 1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
 2. Select the node with the smallest distance (A) and mark it as visited.
-3. Update the distances to its neighbors (B, C, and D). The new distances are 1, 4, and 5 respectively.
-4. Select the node with the smallest distance among the unvisited nodes (B) and mark it as visited.
-5. Update the distances to its neighbors (C and E). The new distances are 5 and 6 respectively.
-6. Select the node with the smallest distance among the unvisited nodes (C) and mark it as visited.
-7. Update the distances to its neighbors (F, G, and H). The new distances are 7, 8, and 9 respectively.
-8. Select the node with the smallest distance among the unvisited nodes (F) and mark it as visited.
-9. Update the distances to its neighbors (G and J). The new distances are 10 and 11 respectively.
-10. Select the node with the smallest distance among the unvisited nodes (G) and mark it as visited.
-11. Update the distances to its neighbors (I and K). The new distances are 12 and 13 respectively.
-12. Select the node with the smallest distance among the unvisited nodes (J) and mark it as visited.
-13. Since we have reached the destination node (J), we can stop the algorithm.
-The least cost path from node A to node J is A -&gt; F -&gt; G -&gt; J with a total cost of 11.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node J is A -&gt; I -&gt; J.</t>
+3. Update the distances to its neighbors (B, C, D, E, F, G, H, I, J, K, L).
+4. Repeat steps 2 and 3 until all nodes are visited or the target node (J) is visited.
+Here's the result of applying Dijkstra's algorithm:
+1. Unvisited nodes: {A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S}
+   Distances: {A: 0, B: ∞, C: ∞, D: ∞, E: ∞, F: ∞, G: ∞, H: ∞, I: ∞, J: ∞, K: ∞, L: ∞, M: ∞, N: ∞, O: ∞, P: ∞, Q: ∞, R: ∞, S: ∞}
+2. Visit node A (smallest distance):
+   Unvisited nodes: {B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S}
+   Distances: {A: 0, B: 4, C: 2, D: 5, E: 7, F: 7, G: 3, H: 4, I: 7, J: 9, K: 9, L: 6, M: 9, N: 9, O: 9, P: 12, Q: 12, R: 12, S: 12}
+3. Visit node C (smallest distance):
+   Unvisited nodes: {B, D, E, F, G, H, I</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node J, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node J:
 A -&gt; B -&gt; C -&gt; H -&gt; F -&gt; G -&gt; J
-The total cost of this path is 3 + 3 + 2 + 2 + 5 + 3 + 1 = 19.</t>
+The cost of this path is 3 + 4 + 2 + 0 + 2 + 0 + 2 = 15.</t>
   </si>
   <si>
     <t>Wrong</t>
@@ -1169,10 +1148,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1183,10 +1162,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1197,10 +1176,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1211,10 +1190,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1225,10 +1204,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1239,10 +1218,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1253,10 +1232,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1267,10 +1246,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1278,13 +1257,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1292,13 +1271,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
